--- a/biology/Médecine/Microdermabrasion/Microdermabrasion.xlsx
+++ b/biology/Médecine/Microdermabrasion/Microdermabrasion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La microdermabrasion est une technique cosmétique consistant à polir la peau par projection de cristaux (sel, oxyde d'aluminium ou sablon). Ainsi, l'épiderme est pelé. La microdermabrasion est proposée pour traiter des rides sur le visage et le cou/décolleté, des cicatrices, ou des troubles de la pigmentation.
 Plusieurs traitements peuvent être effectués :
@@ -512,17 +524,12 @@
           <t>Traitements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La microdermabrasion est appliquée dans la chirurgie  esthétique et aussi la chirurgie  médicale[1].
-Chirurgie  esthétique
-Augmentation des pores
-Rides fines sur le visage, le cou et le décolleté
-Vergeture
-Chirurgie  médicale
- Comédon (points noirs)
-Cicatrices d'acné atrophiques superficielles
-Nevus mélanocytaires</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La microdermabrasion est appliquée dans la chirurgie  esthétique et aussi la chirurgie  médicale.
+</t>
         </is>
       </c>
     </row>
@@ -547,10 +554,88 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Traitements</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Chirurgie  esthétique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Augmentation des pores
+Rides fines sur le visage, le cou et le décolleté
+Vergeture</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Microdermabrasion</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Microdermabrasion</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Traitements</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Chirurgie  médicale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Comédon (points noirs)
+Cicatrices d'acné atrophiques superficielles
+Nevus mélanocytaires</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Microdermabrasion</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Microdermabrasion</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Littérature</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Hill, Pamela, Microdermabrasion, Clifton Park NY, Thomson Delmar Learning, 2006</t>
         </is>
